--- a/Code/Results/Cases/Case_0_134/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_134/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9983859965855725</v>
+        <v>1.032687173732303</v>
       </c>
       <c r="D2">
-        <v>1.010787360715828</v>
+        <v>1.039950271089563</v>
       </c>
       <c r="E2">
-        <v>1.005010224578198</v>
+        <v>1.032093291896511</v>
       </c>
       <c r="F2">
-        <v>1.012546865537318</v>
+        <v>1.047209856671653</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042627669553639</v>
+        <v>1.031709063085748</v>
       </c>
       <c r="J2">
-        <v>1.020615089617845</v>
+        <v>1.037816024603923</v>
       </c>
       <c r="K2">
-        <v>1.022098428642899</v>
+        <v>1.042734004010001</v>
       </c>
       <c r="L2">
-        <v>1.016400197545698</v>
+        <v>1.034899517529054</v>
       </c>
       <c r="M2">
-        <v>1.02383412680838</v>
+        <v>1.049973132548261</v>
       </c>
       <c r="N2">
-        <v>1.022064480111288</v>
+        <v>1.039289842398022</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00305805433772</v>
+        <v>1.033676102838914</v>
       </c>
       <c r="D3">
-        <v>1.014832912465448</v>
+        <v>1.040860434702759</v>
       </c>
       <c r="E3">
-        <v>1.008750522749398</v>
+        <v>1.0329346223286</v>
       </c>
       <c r="F3">
-        <v>1.017232271367642</v>
+        <v>1.048279545029488</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043471622251557</v>
+        <v>1.031816832146939</v>
       </c>
       <c r="J3">
-        <v>1.023465699446237</v>
+        <v>1.03844715264282</v>
       </c>
       <c r="K3">
-        <v>1.025279457017967</v>
+        <v>1.043454228186014</v>
       </c>
       <c r="L3">
-        <v>1.019272650081247</v>
+        <v>1.035549460993314</v>
       </c>
       <c r="M3">
-        <v>1.027649309538555</v>
+        <v>1.050853950114456</v>
       </c>
       <c r="N3">
-        <v>1.024919138132607</v>
+        <v>1.039921866711126</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006018067086656</v>
+        <v>1.034316291881809</v>
       </c>
       <c r="D4">
-        <v>1.017401598599925</v>
+        <v>1.041449985217088</v>
       </c>
       <c r="E4">
-        <v>1.011126337715208</v>
+        <v>1.033479635549381</v>
       </c>
       <c r="F4">
-        <v>1.020208115022025</v>
+        <v>1.048972653971716</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043994179828667</v>
+        <v>1.031885072854658</v>
       </c>
       <c r="J4">
-        <v>1.025269072893932</v>
+        <v>1.038855229477799</v>
       </c>
       <c r="K4">
-        <v>1.027294442048744</v>
+        <v>1.043920245143445</v>
       </c>
       <c r="L4">
-        <v>1.021092307037148</v>
+        <v>1.035969990744482</v>
       </c>
       <c r="M4">
-        <v>1.030068613506426</v>
+        <v>1.051424248843068</v>
       </c>
       <c r="N4">
-        <v>1.026725072577447</v>
+        <v>1.040330523062018</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007247894262546</v>
+        <v>1.034585495173064</v>
       </c>
       <c r="D5">
-        <v>1.018470141386143</v>
+        <v>1.041697978214467</v>
       </c>
       <c r="E5">
-        <v>1.012114864197903</v>
+        <v>1.033708905537454</v>
       </c>
       <c r="F5">
-        <v>1.021446264546256</v>
+        <v>1.049264263320927</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044208334707631</v>
+        <v>1.031913403339089</v>
       </c>
       <c r="J5">
-        <v>1.026017665249122</v>
+        <v>1.039026711149956</v>
       </c>
       <c r="K5">
-        <v>1.028131501001202</v>
+        <v>1.044116153982059</v>
       </c>
       <c r="L5">
-        <v>1.021848249907064</v>
+        <v>1.036146774128747</v>
       </c>
       <c r="M5">
-        <v>1.031074274224221</v>
+        <v>1.051664085606877</v>
       </c>
       <c r="N5">
-        <v>1.027474728019647</v>
+        <v>1.040502248257818</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007453549163544</v>
+        <v>1.03463069954974</v>
       </c>
       <c r="D6">
-        <v>1.018648901438344</v>
+        <v>1.04173962586064</v>
       </c>
       <c r="E6">
-        <v>1.01228025042018</v>
+        <v>1.033747409532534</v>
       </c>
       <c r="F6">
-        <v>1.021653413026191</v>
+        <v>1.049313239062323</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044243971053657</v>
+        <v>1.031918139150681</v>
       </c>
       <c r="J6">
-        <v>1.026142806101447</v>
+        <v>1.039055499325756</v>
       </c>
       <c r="K6">
-        <v>1.02827146760073</v>
+        <v>1.044149047639793</v>
       </c>
       <c r="L6">
-        <v>1.021974654281512</v>
+        <v>1.036176456383356</v>
       </c>
       <c r="M6">
-        <v>1.031242471139127</v>
+        <v>1.051704360108699</v>
       </c>
       <c r="N6">
-        <v>1.027600046586336</v>
+        <v>1.04053107731613</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006034556610309</v>
+        <v>1.034319888723629</v>
       </c>
       <c r="D7">
-        <v>1.017415920521079</v>
+        <v>1.041453298339361</v>
       </c>
       <c r="E7">
-        <v>1.011139586322241</v>
+        <v>1.033482698492174</v>
       </c>
       <c r="F7">
-        <v>1.020224709269242</v>
+        <v>1.048976549581777</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043997062962084</v>
+        <v>1.031885452814893</v>
       </c>
       <c r="J7">
-        <v>1.02527911273288</v>
+        <v>1.03885752111535</v>
       </c>
       <c r="K7">
-        <v>1.027305665889051</v>
+        <v>1.043922862906369</v>
       </c>
       <c r="L7">
-        <v>1.021102443122439</v>
+        <v>1.03597235296253</v>
       </c>
       <c r="M7">
-        <v>1.030082095523253</v>
+        <v>1.051427453227836</v>
       </c>
       <c r="N7">
-        <v>1.026735126674119</v>
+        <v>1.040332817953957</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9999783497970374</v>
+        <v>1.033021327419472</v>
       </c>
       <c r="D8">
-        <v>1.012164985577605</v>
+        <v>1.040257737462545</v>
       </c>
       <c r="E8">
-        <v>1.006283696565753</v>
+        <v>1.032377495221473</v>
       </c>
       <c r="F8">
-        <v>1.014142205855858</v>
+        <v>1.047571165840023</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042917826530176</v>
+        <v>1.031745793018936</v>
       </c>
       <c r="J8">
-        <v>1.021587180099357</v>
+        <v>1.038029380017026</v>
       </c>
       <c r="K8">
-        <v>1.023182657662109</v>
+        <v>1.042977410023959</v>
       </c>
       <c r="L8">
-        <v>1.017379218657311</v>
+        <v>1.035119174085684</v>
       </c>
       <c r="M8">
-        <v>1.025133959795479</v>
+        <v>1.050270735826774</v>
       </c>
       <c r="N8">
-        <v>1.023037951072786</v>
+        <v>1.039503500800284</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9887969120414438</v>
+        <v>1.030735311528638</v>
       </c>
       <c r="D9">
-        <v>1.002516883226523</v>
+        <v>1.038155750631575</v>
       </c>
       <c r="E9">
-        <v>0.9973695172602696</v>
+        <v>1.030434752675461</v>
       </c>
       <c r="F9">
-        <v>1.002972209887159</v>
+        <v>1.045102006246605</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040830726981364</v>
+        <v>1.031488279750389</v>
       </c>
       <c r="J9">
-        <v>1.014751578832206</v>
+        <v>1.036567785546345</v>
       </c>
       <c r="K9">
-        <v>1.01556925731553</v>
+        <v>1.041311312073088</v>
       </c>
       <c r="L9">
-        <v>1.010505416870822</v>
+        <v>1.033615592527348</v>
       </c>
       <c r="M9">
-        <v>1.016017248417759</v>
+        <v>1.048235175218837</v>
       </c>
       <c r="N9">
-        <v>1.016192642467781</v>
+        <v>1.038039830697808</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9809608384451979</v>
+        <v>1.029212823611095</v>
       </c>
       <c r="D10">
-        <v>0.9957898983063322</v>
+        <v>1.03675767270709</v>
       </c>
       <c r="E10">
-        <v>0.9911605289891633</v>
+        <v>1.029142859046297</v>
       </c>
       <c r="F10">
-        <v>0.9951867084122206</v>
+        <v>1.043460860945549</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039307089071861</v>
+        <v>1.031308956550585</v>
       </c>
       <c r="J10">
-        <v>1.009950752765794</v>
+        <v>1.035591884084932</v>
       </c>
       <c r="K10">
-        <v>1.01023558579039</v>
+        <v>1.040200566388617</v>
       </c>
       <c r="L10">
-        <v>1.005691238235338</v>
+        <v>1.032613137619555</v>
       </c>
       <c r="M10">
-        <v>1.009643415570758</v>
+        <v>1.046880012832919</v>
       </c>
       <c r="N10">
-        <v>1.011384998677692</v>
+        <v>1.037062543344382</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9774676473226283</v>
+        <v>1.028553937072561</v>
       </c>
       <c r="D11">
-        <v>0.9928000198848606</v>
+        <v>1.036153071137967</v>
       </c>
       <c r="E11">
-        <v>0.9884025653418176</v>
+        <v>1.028584242928323</v>
       </c>
       <c r="F11">
-        <v>0.9917266270882237</v>
+        <v>1.042751413352071</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038614111885177</v>
+        <v>1.031229499241063</v>
       </c>
       <c r="J11">
-        <v>1.00780879867798</v>
+        <v>1.035168959858299</v>
       </c>
       <c r="K11">
-        <v>1.007859006722377</v>
+        <v>1.039719607325865</v>
       </c>
       <c r="L11">
-        <v>1.003546557269735</v>
+        <v>1.03217905741032</v>
       </c>
       <c r="M11">
-        <v>1.006806272074575</v>
+        <v>1.046293667427991</v>
       </c>
       <c r="N11">
-        <v>1.009240002769388</v>
+        <v>1.036639018516837</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9761541970696582</v>
+        <v>1.028309251909115</v>
       </c>
       <c r="D12">
-        <v>0.9916772183614219</v>
+        <v>1.035928612569675</v>
       </c>
       <c r="E12">
-        <v>0.9873671266634867</v>
+        <v>1.028376866571833</v>
       </c>
       <c r="F12">
-        <v>0.990427256717086</v>
+        <v>1.04248807080221</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038351544261072</v>
+        <v>1.031199713861154</v>
       </c>
       <c r="J12">
-        <v>1.007003199899441</v>
+        <v>1.035011814680674</v>
       </c>
       <c r="K12">
-        <v>1.006965625868428</v>
+        <v>1.0395409585868</v>
       </c>
       <c r="L12">
-        <v>1.002740421726767</v>
+        <v>1.032017819840399</v>
       </c>
       <c r="M12">
-        <v>1.005740182458429</v>
+        <v>1.046075940771692</v>
       </c>
       <c r="N12">
-        <v>1.00843325994818</v>
+        <v>1.036481650175035</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9764366720643367</v>
+        <v>1.028361735228013</v>
       </c>
       <c r="D13">
-        <v>0.9919186274023198</v>
+        <v>1.035976754368948</v>
       </c>
       <c r="E13">
-        <v>0.9875897396349235</v>
+        <v>1.028421344123875</v>
       </c>
       <c r="F13">
-        <v>0.9907066292598387</v>
+        <v>1.042544550612301</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038408102543881</v>
+        <v>1.031206115200944</v>
       </c>
       <c r="J13">
-        <v>1.007176463555581</v>
+        <v>1.035045525210257</v>
       </c>
       <c r="K13">
-        <v>1.0071577484477</v>
+        <v>1.039579279297093</v>
       </c>
       <c r="L13">
-        <v>1.002913778682691</v>
+        <v>1.032052405873147</v>
       </c>
       <c r="M13">
-        <v>1.005969427428162</v>
+        <v>1.046122640784095</v>
       </c>
       <c r="N13">
-        <v>1.008606769658585</v>
+        <v>1.036515408577436</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9773594072819983</v>
+        <v>1.028533710203596</v>
       </c>
       <c r="D14">
-        <v>0.9927074621330458</v>
+        <v>1.036134514923199</v>
       </c>
       <c r="E14">
-        <v>0.9883172037026358</v>
+        <v>1.028567098709981</v>
       </c>
       <c r="F14">
-        <v>0.9916195139616276</v>
+        <v>1.042729641741986</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038592514370163</v>
+        <v>1.031227042706309</v>
       </c>
       <c r="J14">
-        <v>1.007742414225317</v>
+        <v>1.03515597125174</v>
       </c>
       <c r="K14">
-        <v>1.007785379344368</v>
+        <v>1.039704840143537</v>
       </c>
       <c r="L14">
-        <v>1.003480118630523</v>
+        <v>1.032165729475593</v>
       </c>
       <c r="M14">
-        <v>1.006718402528767</v>
+        <v>1.046275668680693</v>
       </c>
       <c r="N14">
-        <v>1.009173524043188</v>
+        <v>1.036626011464967</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9779257973944303</v>
+        <v>1.028639676914439</v>
       </c>
       <c r="D15">
-        <v>0.9931918486923706</v>
+        <v>1.036231731986999</v>
       </c>
       <c r="E15">
-        <v>0.9887639416824687</v>
+        <v>1.028656918658967</v>
       </c>
       <c r="F15">
-        <v>0.9921800739560623</v>
+        <v>1.042843706087462</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038705446795388</v>
+        <v>1.031239900882599</v>
       </c>
       <c r="J15">
-        <v>1.008089777127928</v>
+        <v>1.035224013794105</v>
       </c>
       <c r="K15">
-        <v>1.00817066030466</v>
+        <v>1.03978220246148</v>
       </c>
       <c r="L15">
-        <v>1.003827785010227</v>
+        <v>1.032235551796426</v>
       </c>
       <c r="M15">
-        <v>1.007178227721025</v>
+        <v>1.046369963267736</v>
       </c>
       <c r="N15">
-        <v>1.009521380240963</v>
+        <v>1.036694150635547</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9811904868533211</v>
+        <v>1.029256559378535</v>
       </c>
       <c r="D16">
-        <v>0.9959866487666466</v>
+        <v>1.03679781453383</v>
       </c>
       <c r="E16">
-        <v>0.9913420547984904</v>
+        <v>1.029179949127107</v>
       </c>
       <c r="F16">
-        <v>0.9954144037276071</v>
+        <v>1.043507969550606</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039352365104451</v>
+        <v>1.031314191788306</v>
       </c>
       <c r="J16">
-        <v>1.010091535216085</v>
+        <v>1.035619944803768</v>
       </c>
       <c r="K16">
-        <v>1.010391853510862</v>
+        <v>1.040232486141448</v>
       </c>
       <c r="L16">
-        <v>1.005832267451916</v>
+        <v>1.032641945933086</v>
       </c>
       <c r="M16">
-        <v>1.009830026251243</v>
+        <v>1.04691893616278</v>
       </c>
       <c r="N16">
-        <v>1.01152598105521</v>
+        <v>1.037090643912657</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9832109332407554</v>
+        <v>1.029643610343927</v>
       </c>
       <c r="D17">
-        <v>0.9977186789366076</v>
+        <v>1.037153111376585</v>
       </c>
       <c r="E17">
-        <v>0.9929402537225339</v>
+        <v>1.029508242486766</v>
       </c>
       <c r="F17">
-        <v>0.9974188737048112</v>
+        <v>1.043924960671522</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039749145000133</v>
+        <v>1.031360308432246</v>
       </c>
       <c r="J17">
-        <v>1.011329937943833</v>
+        <v>1.035868207971798</v>
       </c>
       <c r="K17">
-        <v>1.011766826561591</v>
+        <v>1.040514937998235</v>
       </c>
       <c r="L17">
-        <v>1.007073208607647</v>
+        <v>1.032896863919474</v>
       </c>
       <c r="M17">
-        <v>1.011472311277546</v>
+        <v>1.047263413019432</v>
       </c>
       <c r="N17">
-        <v>1.012766142456879</v>
+        <v>1.037339259642862</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9843798282674613</v>
+        <v>1.029869405404235</v>
       </c>
       <c r="D18">
-        <v>0.9987215550725724</v>
+        <v>1.037360424769456</v>
       </c>
       <c r="E18">
-        <v>0.9938657981194111</v>
+        <v>1.029699805867231</v>
       </c>
       <c r="F18">
-        <v>0.9985795247207582</v>
+        <v>1.044168298260008</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039977385895787</v>
+        <v>1.031387032903113</v>
       </c>
       <c r="J18">
-        <v>1.012046217875185</v>
+        <v>1.03601298162623</v>
       </c>
       <c r="K18">
-        <v>1.012562392690681</v>
+        <v>1.040679687451461</v>
       </c>
       <c r="L18">
-        <v>1.007791262673022</v>
+        <v>1.033045552193676</v>
       </c>
       <c r="M18">
-        <v>1.012422822548203</v>
+        <v>1.047464383802413</v>
       </c>
       <c r="N18">
-        <v>1.013483439587891</v>
+        <v>1.037484238892489</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9847767891334726</v>
+        <v>1.029946401571061</v>
       </c>
       <c r="D19">
-        <v>0.9990622758642732</v>
+        <v>1.037431125932076</v>
       </c>
       <c r="E19">
-        <v>0.9941802723901312</v>
+        <v>1.029765136791217</v>
       </c>
       <c r="F19">
-        <v>0.9989738540883971</v>
+        <v>1.04425128935673</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040054673394989</v>
+        <v>1.0313961156315</v>
       </c>
       <c r="J19">
-        <v>1.012289437397798</v>
+        <v>1.036062339905272</v>
       </c>
       <c r="K19">
-        <v>1.012832584845329</v>
+        <v>1.040735862747088</v>
       </c>
       <c r="L19">
-        <v>1.008035136418071</v>
+        <v>1.033096250847908</v>
       </c>
       <c r="M19">
-        <v>1.012745685010222</v>
+        <v>1.047532916962362</v>
       </c>
       <c r="N19">
-        <v>1.013727004510124</v>
+        <v>1.037533667265949</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9829951573086032</v>
+        <v>1.029602079837641</v>
       </c>
       <c r="D20">
-        <v>0.9975336172040399</v>
+        <v>1.037114983649119</v>
       </c>
       <c r="E20">
-        <v>0.9927694748115142</v>
+        <v>1.029473011908078</v>
       </c>
       <c r="F20">
-        <v>0.9972047000504282</v>
+        <v>1.04388020970248</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039706905859022</v>
+        <v>1.031355378608191</v>
       </c>
       <c r="J20">
-        <v>1.01119769924812</v>
+        <v>1.035841575200645</v>
       </c>
       <c r="K20">
-        <v>1.011619974062789</v>
+        <v>1.040484633575393</v>
       </c>
       <c r="L20">
-        <v>1.006940667084223</v>
+        <v>1.032869513737775</v>
       </c>
       <c r="M20">
-        <v>1.011296880167092</v>
+        <v>1.047226449433053</v>
       </c>
       <c r="N20">
-        <v>1.012633715967049</v>
+        <v>1.037312589050119</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9770881317392605</v>
+        <v>1.028483066348004</v>
       </c>
       <c r="D21">
-        <v>0.9924755129758808</v>
+        <v>1.036088055124875</v>
       </c>
       <c r="E21">
-        <v>0.9881032923862515</v>
+        <v>1.028524174336815</v>
       </c>
       <c r="F21">
-        <v>0.9913510891499969</v>
+        <v>1.042675132101562</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038538353712068</v>
+        <v>1.031220887566171</v>
       </c>
       <c r="J21">
-        <v>1.007576035532155</v>
+        <v>1.035123449083426</v>
       </c>
       <c r="K21">
-        <v>1.007600855191494</v>
+        <v>1.039667865574103</v>
       </c>
       <c r="L21">
-        <v>1.00331361201581</v>
+        <v>1.032132358516766</v>
       </c>
       <c r="M21">
-        <v>1.006498191554746</v>
+        <v>1.046230603892802</v>
       </c>
       <c r="N21">
-        <v>1.009006909073197</v>
+        <v>1.036593443111443</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9732815357190517</v>
+        <v>1.027779814464966</v>
       </c>
       <c r="D22">
-        <v>0.9892241795589808</v>
+        <v>1.035443063931035</v>
       </c>
       <c r="E22">
-        <v>0.9851054720012403</v>
+        <v>1.027928288840879</v>
       </c>
       <c r="F22">
-        <v>0.9875884386394689</v>
+        <v>1.041918481470362</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037773660433925</v>
+        <v>1.031134757692854</v>
       </c>
       <c r="J22">
-        <v>1.005240930684645</v>
+        <v>1.034671632491132</v>
       </c>
       <c r="K22">
-        <v>1.00501217329206</v>
+        <v>1.039154336503643</v>
       </c>
       <c r="L22">
-        <v>1.000977881754944</v>
+        <v>1.03166887520553</v>
       </c>
       <c r="M22">
-        <v>1.003409846951023</v>
+        <v>1.045604870827522</v>
       </c>
       <c r="N22">
-        <v>1.006668488108963</v>
+        <v>1.036140984887765</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9753085750925125</v>
+        <v>1.0281525914664</v>
       </c>
       <c r="D23">
-        <v>0.9909547427116199</v>
+        <v>1.035784921261196</v>
       </c>
       <c r="E23">
-        <v>0.9867009439618939</v>
+        <v>1.028244113624471</v>
       </c>
       <c r="F23">
-        <v>0.9895911647114558</v>
+        <v>1.04231949846162</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038181941321183</v>
+        <v>1.031180565450342</v>
       </c>
       <c r="J23">
-        <v>1.006484487466887</v>
+        <v>1.034911177438845</v>
       </c>
       <c r="K23">
-        <v>1.006390521232289</v>
+        <v>1.039426567235654</v>
       </c>
       <c r="L23">
-        <v>1.002221501907017</v>
+        <v>1.031914576663034</v>
       </c>
       <c r="M23">
-        <v>1.005054015393776</v>
+        <v>1.045936546131749</v>
       </c>
       <c r="N23">
-        <v>1.007913810884475</v>
+        <v>1.036380870016779</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9830926867579755</v>
+        <v>1.029620845578252</v>
       </c>
       <c r="D24">
-        <v>0.9976172614181029</v>
+        <v>1.037132211697025</v>
       </c>
       <c r="E24">
-        <v>0.9928466629836509</v>
+        <v>1.029488930857141</v>
       </c>
       <c r="F24">
-        <v>0.9973015021854921</v>
+        <v>1.04390043038772</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039726001766826</v>
+        <v>1.031357606722951</v>
       </c>
       <c r="J24">
-        <v>1.011257470912146</v>
+        <v>1.035853609508762</v>
       </c>
       <c r="K24">
-        <v>1.011686350224621</v>
+        <v>1.040498326839456</v>
       </c>
       <c r="L24">
-        <v>1.007000574677332</v>
+        <v>1.032881872110962</v>
       </c>
       <c r="M24">
-        <v>1.01137617277371</v>
+        <v>1.047243151552994</v>
       </c>
       <c r="N24">
-        <v>1.012693572513695</v>
+        <v>1.037324640448334</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9917518408046435</v>
+        <v>1.031326035508108</v>
       </c>
       <c r="D25">
-        <v>1.005060876081277</v>
+        <v>1.038698596539418</v>
       </c>
       <c r="E25">
-        <v>0.9997189682474301</v>
+        <v>1.030936426790618</v>
       </c>
       <c r="F25">
-        <v>1.005916933379745</v>
+        <v>1.04573947234743</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041393008974703</v>
+        <v>1.031556203038422</v>
       </c>
       <c r="J25">
-        <v>1.016560012916478</v>
+        <v>1.036945911263793</v>
       </c>
       <c r="K25">
-        <v>1.017581133207371</v>
+        <v>1.041742044135108</v>
       </c>
       <c r="L25">
-        <v>1.012321648438945</v>
+        <v>1.034004319760657</v>
       </c>
       <c r="M25">
-        <v>1.018424085764175</v>
+        <v>1.048761088866425</v>
       </c>
       <c r="N25">
-        <v>1.018003644735883</v>
+        <v>1.038418493397146</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_134/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_134/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032687173732303</v>
+        <v>0.9983859965855727</v>
       </c>
       <c r="D2">
-        <v>1.039950271089563</v>
+        <v>1.010787360715828</v>
       </c>
       <c r="E2">
-        <v>1.032093291896511</v>
+        <v>1.005010224578198</v>
       </c>
       <c r="F2">
-        <v>1.047209856671653</v>
+        <v>1.012546865537319</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031709063085748</v>
+        <v>1.042627669553639</v>
       </c>
       <c r="J2">
-        <v>1.037816024603923</v>
+        <v>1.020615089617845</v>
       </c>
       <c r="K2">
-        <v>1.042734004010001</v>
+        <v>1.0220984286429</v>
       </c>
       <c r="L2">
-        <v>1.034899517529054</v>
+        <v>1.016400197545698</v>
       </c>
       <c r="M2">
-        <v>1.049973132548261</v>
+        <v>1.023834126808381</v>
       </c>
       <c r="N2">
-        <v>1.039289842398022</v>
+        <v>1.022064480111288</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033676102838914</v>
+        <v>1.003058054337719</v>
       </c>
       <c r="D3">
-        <v>1.040860434702759</v>
+        <v>1.014832912465447</v>
       </c>
       <c r="E3">
-        <v>1.0329346223286</v>
+        <v>1.008750522749397</v>
       </c>
       <c r="F3">
-        <v>1.048279545029488</v>
+        <v>1.017232271367641</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031816832146939</v>
+        <v>1.043471622251557</v>
       </c>
       <c r="J3">
-        <v>1.03844715264282</v>
+        <v>1.023465699446236</v>
       </c>
       <c r="K3">
-        <v>1.043454228186014</v>
+        <v>1.025279457017966</v>
       </c>
       <c r="L3">
-        <v>1.035549460993314</v>
+        <v>1.019272650081246</v>
       </c>
       <c r="M3">
-        <v>1.050853950114456</v>
+        <v>1.027649309538553</v>
       </c>
       <c r="N3">
-        <v>1.039921866711126</v>
+        <v>1.024919138132606</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034316291881809</v>
+        <v>1.006018067086656</v>
       </c>
       <c r="D4">
-        <v>1.041449985217088</v>
+        <v>1.017401598599925</v>
       </c>
       <c r="E4">
-        <v>1.033479635549381</v>
+        <v>1.011126337715207</v>
       </c>
       <c r="F4">
-        <v>1.048972653971716</v>
+        <v>1.020208115022025</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031885072854658</v>
+        <v>1.043994179828667</v>
       </c>
       <c r="J4">
-        <v>1.038855229477799</v>
+        <v>1.025269072893931</v>
       </c>
       <c r="K4">
-        <v>1.043920245143445</v>
+        <v>1.027294442048744</v>
       </c>
       <c r="L4">
-        <v>1.035969990744482</v>
+        <v>1.021092307037148</v>
       </c>
       <c r="M4">
-        <v>1.051424248843068</v>
+        <v>1.030068613506426</v>
       </c>
       <c r="N4">
-        <v>1.040330523062018</v>
+        <v>1.026725072577447</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034585495173064</v>
+        <v>1.007247894262545</v>
       </c>
       <c r="D5">
-        <v>1.041697978214467</v>
+        <v>1.018470141386143</v>
       </c>
       <c r="E5">
-        <v>1.033708905537454</v>
+        <v>1.012114864197903</v>
       </c>
       <c r="F5">
-        <v>1.049264263320927</v>
+        <v>1.021446264546255</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031913403339089</v>
+        <v>1.04420833470763</v>
       </c>
       <c r="J5">
-        <v>1.039026711149956</v>
+        <v>1.026017665249122</v>
       </c>
       <c r="K5">
-        <v>1.044116153982059</v>
+        <v>1.028131501001201</v>
       </c>
       <c r="L5">
-        <v>1.036146774128747</v>
+        <v>1.021848249907064</v>
       </c>
       <c r="M5">
-        <v>1.051664085606877</v>
+        <v>1.03107427422422</v>
       </c>
       <c r="N5">
-        <v>1.040502248257818</v>
+        <v>1.027474728019647</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03463069954974</v>
+        <v>1.007453549163544</v>
       </c>
       <c r="D6">
-        <v>1.04173962586064</v>
+        <v>1.018648901438344</v>
       </c>
       <c r="E6">
-        <v>1.033747409532534</v>
+        <v>1.01228025042018</v>
       </c>
       <c r="F6">
-        <v>1.049313239062323</v>
+        <v>1.021653413026191</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031918139150681</v>
+        <v>1.044243971053657</v>
       </c>
       <c r="J6">
-        <v>1.039055499325756</v>
+        <v>1.026142806101447</v>
       </c>
       <c r="K6">
-        <v>1.044149047639793</v>
+        <v>1.02827146760073</v>
       </c>
       <c r="L6">
-        <v>1.036176456383356</v>
+        <v>1.021974654281512</v>
       </c>
       <c r="M6">
-        <v>1.051704360108699</v>
+        <v>1.031242471139127</v>
       </c>
       <c r="N6">
-        <v>1.04053107731613</v>
+        <v>1.027600046586336</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034319888723629</v>
+        <v>1.006034556610309</v>
       </c>
       <c r="D7">
-        <v>1.041453298339361</v>
+        <v>1.01741592052108</v>
       </c>
       <c r="E7">
-        <v>1.033482698492174</v>
+        <v>1.011139586322241</v>
       </c>
       <c r="F7">
-        <v>1.048976549581777</v>
+        <v>1.020224709269243</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031885452814893</v>
+        <v>1.043997062962084</v>
       </c>
       <c r="J7">
-        <v>1.03885752111535</v>
+        <v>1.025279112732881</v>
       </c>
       <c r="K7">
-        <v>1.043922862906369</v>
+        <v>1.027305665889052</v>
       </c>
       <c r="L7">
-        <v>1.03597235296253</v>
+        <v>1.021102443122439</v>
       </c>
       <c r="M7">
-        <v>1.051427453227836</v>
+        <v>1.030082095523253</v>
       </c>
       <c r="N7">
-        <v>1.040332817953957</v>
+        <v>1.026735126674119</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033021327419472</v>
+        <v>0.9999783497970366</v>
       </c>
       <c r="D8">
-        <v>1.040257737462545</v>
+        <v>1.012164985577605</v>
       </c>
       <c r="E8">
-        <v>1.032377495221473</v>
+        <v>1.006283696565753</v>
       </c>
       <c r="F8">
-        <v>1.047571165840023</v>
+        <v>1.014142205855858</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031745793018936</v>
+        <v>1.042917826530176</v>
       </c>
       <c r="J8">
-        <v>1.038029380017026</v>
+        <v>1.021587180099357</v>
       </c>
       <c r="K8">
-        <v>1.042977410023959</v>
+        <v>1.023182657662109</v>
       </c>
       <c r="L8">
-        <v>1.035119174085684</v>
+        <v>1.01737921865731</v>
       </c>
       <c r="M8">
-        <v>1.050270735826774</v>
+        <v>1.025133959795478</v>
       </c>
       <c r="N8">
-        <v>1.039503500800284</v>
+        <v>1.023037951072785</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030735311528638</v>
+        <v>0.9887969120414439</v>
       </c>
       <c r="D9">
-        <v>1.038155750631575</v>
+        <v>1.002516883226523</v>
       </c>
       <c r="E9">
-        <v>1.030434752675461</v>
+        <v>0.9973695172602695</v>
       </c>
       <c r="F9">
-        <v>1.045102006246605</v>
+        <v>1.002972209887159</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031488279750389</v>
+        <v>1.040830726981364</v>
       </c>
       <c r="J9">
-        <v>1.036567785546345</v>
+        <v>1.014751578832206</v>
       </c>
       <c r="K9">
-        <v>1.041311312073088</v>
+        <v>1.01556925731553</v>
       </c>
       <c r="L9">
-        <v>1.033615592527348</v>
+        <v>1.010505416870822</v>
       </c>
       <c r="M9">
-        <v>1.048235175218837</v>
+        <v>1.01601724841776</v>
       </c>
       <c r="N9">
-        <v>1.038039830697808</v>
+        <v>1.016192642467781</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029212823611095</v>
+        <v>0.9809608384451979</v>
       </c>
       <c r="D10">
-        <v>1.03675767270709</v>
+        <v>0.9957898983063321</v>
       </c>
       <c r="E10">
-        <v>1.029142859046297</v>
+        <v>0.9911605289891635</v>
       </c>
       <c r="F10">
-        <v>1.043460860945549</v>
+        <v>0.9951867084122202</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031308956550585</v>
+        <v>1.039307089071861</v>
       </c>
       <c r="J10">
-        <v>1.035591884084932</v>
+        <v>1.009950752765794</v>
       </c>
       <c r="K10">
-        <v>1.040200566388617</v>
+        <v>1.01023558579039</v>
       </c>
       <c r="L10">
-        <v>1.032613137619555</v>
+        <v>1.005691238235338</v>
       </c>
       <c r="M10">
-        <v>1.046880012832919</v>
+        <v>1.009643415570758</v>
       </c>
       <c r="N10">
-        <v>1.037062543344382</v>
+        <v>1.011384998677692</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>1.028553937072561</v>
+        <v>0.9774676473226276</v>
       </c>
       <c r="D11">
-        <v>1.036153071137967</v>
+        <v>0.9928000198848603</v>
       </c>
       <c r="E11">
-        <v>1.028584242928323</v>
+        <v>0.988402565341817</v>
       </c>
       <c r="F11">
-        <v>1.042751413352071</v>
+        <v>0.9917266270882236</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031229499241063</v>
+        <v>1.038614111885177</v>
       </c>
       <c r="J11">
-        <v>1.035168959858299</v>
+        <v>1.00780879867798</v>
       </c>
       <c r="K11">
-        <v>1.039719607325865</v>
+        <v>1.007859006722377</v>
       </c>
       <c r="L11">
-        <v>1.03217905741032</v>
+        <v>1.003546557269734</v>
       </c>
       <c r="M11">
-        <v>1.046293667427991</v>
+        <v>1.006806272074575</v>
       </c>
       <c r="N11">
-        <v>1.036639018516837</v>
+        <v>1.009240002769388</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028309251909115</v>
+        <v>0.9761541970696587</v>
       </c>
       <c r="D12">
-        <v>1.035928612569675</v>
+        <v>0.991677218361422</v>
       </c>
       <c r="E12">
-        <v>1.028376866571833</v>
+        <v>0.9873671266634869</v>
       </c>
       <c r="F12">
-        <v>1.04248807080221</v>
+        <v>0.9904272567170862</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031199713861154</v>
+        <v>1.038351544261072</v>
       </c>
       <c r="J12">
-        <v>1.035011814680674</v>
+        <v>1.007003199899442</v>
       </c>
       <c r="K12">
-        <v>1.0395409585868</v>
+        <v>1.006965625868429</v>
       </c>
       <c r="L12">
-        <v>1.032017819840399</v>
+        <v>1.002740421726767</v>
       </c>
       <c r="M12">
-        <v>1.046075940771692</v>
+        <v>1.00574018245843</v>
       </c>
       <c r="N12">
-        <v>1.036481650175035</v>
+        <v>1.00843325994818</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028361735228013</v>
+        <v>0.976436672064336</v>
       </c>
       <c r="D13">
-        <v>1.035976754368948</v>
+        <v>0.9919186274023191</v>
       </c>
       <c r="E13">
-        <v>1.028421344123875</v>
+        <v>0.9875897396349227</v>
       </c>
       <c r="F13">
-        <v>1.042544550612301</v>
+        <v>0.9907066292598382</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031206115200944</v>
+        <v>1.03840810254388</v>
       </c>
       <c r="J13">
-        <v>1.035045525210257</v>
+        <v>1.00717646355558</v>
       </c>
       <c r="K13">
-        <v>1.039579279297093</v>
+        <v>1.0071577484477</v>
       </c>
       <c r="L13">
-        <v>1.032052405873147</v>
+        <v>1.00291377868269</v>
       </c>
       <c r="M13">
-        <v>1.046122640784095</v>
+        <v>1.005969427428161</v>
       </c>
       <c r="N13">
-        <v>1.036515408577436</v>
+        <v>1.008606769658584</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028533710203596</v>
+        <v>0.9773594072819982</v>
       </c>
       <c r="D14">
-        <v>1.036134514923199</v>
+        <v>0.9927074621330456</v>
       </c>
       <c r="E14">
-        <v>1.028567098709981</v>
+        <v>0.9883172037026354</v>
       </c>
       <c r="F14">
-        <v>1.042729641741986</v>
+        <v>0.9916195139616272</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031227042706309</v>
+        <v>1.038592514370163</v>
       </c>
       <c r="J14">
-        <v>1.03515597125174</v>
+        <v>1.007742414225317</v>
       </c>
       <c r="K14">
-        <v>1.039704840143537</v>
+        <v>1.007785379344368</v>
       </c>
       <c r="L14">
-        <v>1.032165729475593</v>
+        <v>1.003480118630523</v>
       </c>
       <c r="M14">
-        <v>1.046275668680693</v>
+        <v>1.006718402528767</v>
       </c>
       <c r="N14">
-        <v>1.036626011464967</v>
+        <v>1.009173524043188</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028639676914439</v>
+        <v>0.9779257973944291</v>
       </c>
       <c r="D15">
-        <v>1.036231731986999</v>
+        <v>0.9931918486923699</v>
       </c>
       <c r="E15">
-        <v>1.028656918658967</v>
+        <v>0.9887639416824672</v>
       </c>
       <c r="F15">
-        <v>1.042843706087462</v>
+        <v>0.9921800739560617</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031239900882599</v>
+        <v>1.038705446795388</v>
       </c>
       <c r="J15">
-        <v>1.035224013794105</v>
+        <v>1.008089777127926</v>
       </c>
       <c r="K15">
-        <v>1.03978220246148</v>
+        <v>1.008170660304659</v>
       </c>
       <c r="L15">
-        <v>1.032235551796426</v>
+        <v>1.003827785010226</v>
       </c>
       <c r="M15">
-        <v>1.046369963267736</v>
+        <v>1.007178227721025</v>
       </c>
       <c r="N15">
-        <v>1.036694150635547</v>
+        <v>1.009521380240962</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029256559378535</v>
+        <v>0.981190486853321</v>
       </c>
       <c r="D16">
-        <v>1.03679781453383</v>
+        <v>0.9959866487666464</v>
       </c>
       <c r="E16">
-        <v>1.029179949127107</v>
+        <v>0.9913420547984898</v>
       </c>
       <c r="F16">
-        <v>1.043507969550606</v>
+        <v>0.9954144037276069</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031314191788306</v>
+        <v>1.039352365104451</v>
       </c>
       <c r="J16">
-        <v>1.035619944803768</v>
+        <v>1.010091535216085</v>
       </c>
       <c r="K16">
-        <v>1.040232486141448</v>
+        <v>1.010391853510861</v>
       </c>
       <c r="L16">
-        <v>1.032641945933086</v>
+        <v>1.005832267451916</v>
       </c>
       <c r="M16">
-        <v>1.04691893616278</v>
+        <v>1.009830026251243</v>
       </c>
       <c r="N16">
-        <v>1.037090643912657</v>
+        <v>1.01152598105521</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029643610343927</v>
+        <v>0.983210933240755</v>
       </c>
       <c r="D17">
-        <v>1.037153111376585</v>
+        <v>0.9977186789366073</v>
       </c>
       <c r="E17">
-        <v>1.029508242486766</v>
+        <v>0.9929402537225337</v>
       </c>
       <c r="F17">
-        <v>1.043924960671522</v>
+        <v>0.9974188737048111</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031360308432246</v>
+        <v>1.039749145000133</v>
       </c>
       <c r="J17">
-        <v>1.035868207971798</v>
+        <v>1.011329937943833</v>
       </c>
       <c r="K17">
-        <v>1.040514937998235</v>
+        <v>1.011766826561591</v>
       </c>
       <c r="L17">
-        <v>1.032896863919474</v>
+        <v>1.007073208607647</v>
       </c>
       <c r="M17">
-        <v>1.047263413019432</v>
+        <v>1.011472311277546</v>
       </c>
       <c r="N17">
-        <v>1.037339259642862</v>
+        <v>1.012766142456879</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029869405404235</v>
+        <v>0.9843798282674602</v>
       </c>
       <c r="D18">
-        <v>1.037360424769456</v>
+        <v>0.998721555072572</v>
       </c>
       <c r="E18">
-        <v>1.029699805867231</v>
+        <v>0.9938657981194104</v>
       </c>
       <c r="F18">
-        <v>1.044168298260008</v>
+        <v>0.9985795247207575</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031387032903113</v>
+        <v>1.039977385895786</v>
       </c>
       <c r="J18">
-        <v>1.03601298162623</v>
+        <v>1.012046217875184</v>
       </c>
       <c r="K18">
-        <v>1.040679687451461</v>
+        <v>1.01256239269068</v>
       </c>
       <c r="L18">
-        <v>1.033045552193676</v>
+        <v>1.007791262673021</v>
       </c>
       <c r="M18">
-        <v>1.047464383802413</v>
+        <v>1.012422822548203</v>
       </c>
       <c r="N18">
-        <v>1.037484238892489</v>
+        <v>1.01348343958789</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029946401571061</v>
+        <v>0.9847767891334717</v>
       </c>
       <c r="D19">
-        <v>1.037431125932076</v>
+        <v>0.9990622758642721</v>
       </c>
       <c r="E19">
-        <v>1.029765136791217</v>
+        <v>0.9941802723901301</v>
       </c>
       <c r="F19">
-        <v>1.04425128935673</v>
+        <v>0.9989738540883961</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0313961156315</v>
+        <v>1.040054673394988</v>
       </c>
       <c r="J19">
-        <v>1.036062339905272</v>
+        <v>1.012289437397797</v>
       </c>
       <c r="K19">
-        <v>1.040735862747088</v>
+        <v>1.012832584845328</v>
       </c>
       <c r="L19">
-        <v>1.033096250847908</v>
+        <v>1.00803513641807</v>
       </c>
       <c r="M19">
-        <v>1.047532916962362</v>
+        <v>1.012745685010221</v>
       </c>
       <c r="N19">
-        <v>1.037533667265949</v>
+        <v>1.013727004510123</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029602079837641</v>
+        <v>0.9829951573086022</v>
       </c>
       <c r="D20">
-        <v>1.037114983649119</v>
+        <v>0.9975336172040391</v>
       </c>
       <c r="E20">
-        <v>1.029473011908078</v>
+        <v>0.9927694748115132</v>
       </c>
       <c r="F20">
-        <v>1.04388020970248</v>
+        <v>0.9972047000504273</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031355378608191</v>
+        <v>1.039706905859021</v>
       </c>
       <c r="J20">
-        <v>1.035841575200645</v>
+        <v>1.011197699248119</v>
       </c>
       <c r="K20">
-        <v>1.040484633575393</v>
+        <v>1.011619974062788</v>
       </c>
       <c r="L20">
-        <v>1.032869513737775</v>
+        <v>1.006940667084222</v>
       </c>
       <c r="M20">
-        <v>1.047226449433053</v>
+        <v>1.011296880167091</v>
       </c>
       <c r="N20">
-        <v>1.037312589050119</v>
+        <v>1.012633715967048</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028483066348004</v>
+        <v>0.97708813173926</v>
       </c>
       <c r="D21">
-        <v>1.036088055124875</v>
+        <v>0.9924755129758805</v>
       </c>
       <c r="E21">
-        <v>1.028524174336815</v>
+        <v>0.9881032923862512</v>
       </c>
       <c r="F21">
-        <v>1.042675132101562</v>
+        <v>0.9913510891499968</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031220887566171</v>
+        <v>1.038538353712067</v>
       </c>
       <c r="J21">
-        <v>1.035123449083426</v>
+        <v>1.007576035532154</v>
       </c>
       <c r="K21">
-        <v>1.039667865574103</v>
+        <v>1.007600855191494</v>
       </c>
       <c r="L21">
-        <v>1.032132358516766</v>
+        <v>1.00331361201581</v>
       </c>
       <c r="M21">
-        <v>1.046230603892802</v>
+        <v>1.006498191554746</v>
       </c>
       <c r="N21">
-        <v>1.036593443111443</v>
+        <v>1.009006909073196</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027779814464966</v>
+        <v>0.973281535719051</v>
       </c>
       <c r="D22">
-        <v>1.035443063931035</v>
+        <v>0.9892241795589801</v>
       </c>
       <c r="E22">
-        <v>1.027928288840879</v>
+        <v>0.9851054720012395</v>
       </c>
       <c r="F22">
-        <v>1.041918481470362</v>
+        <v>0.987588438639468</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031134757692854</v>
+        <v>1.037773660433925</v>
       </c>
       <c r="J22">
-        <v>1.034671632491132</v>
+        <v>1.005240930684644</v>
       </c>
       <c r="K22">
-        <v>1.039154336503643</v>
+        <v>1.005012173292059</v>
       </c>
       <c r="L22">
-        <v>1.03166887520553</v>
+        <v>1.000977881754944</v>
       </c>
       <c r="M22">
-        <v>1.045604870827522</v>
+        <v>1.003409846951023</v>
       </c>
       <c r="N22">
-        <v>1.036140984887765</v>
+        <v>1.006668488108962</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.0281525914664</v>
+        <v>0.975308575092513</v>
       </c>
       <c r="D23">
-        <v>1.035784921261196</v>
+        <v>0.9909547427116203</v>
       </c>
       <c r="E23">
-        <v>1.028244113624471</v>
+        <v>0.9867009439618944</v>
       </c>
       <c r="F23">
-        <v>1.04231949846162</v>
+        <v>0.9895911647114561</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031180565450342</v>
+        <v>1.038181941321183</v>
       </c>
       <c r="J23">
-        <v>1.034911177438845</v>
+        <v>1.006484487466888</v>
       </c>
       <c r="K23">
-        <v>1.039426567235654</v>
+        <v>1.006390521232289</v>
       </c>
       <c r="L23">
-        <v>1.031914576663034</v>
+        <v>1.002221501907018</v>
       </c>
       <c r="M23">
-        <v>1.045936546131749</v>
+        <v>1.005054015393777</v>
       </c>
       <c r="N23">
-        <v>1.036380870016779</v>
+        <v>1.007913810884475</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029620845578252</v>
+        <v>0.9830926867579753</v>
       </c>
       <c r="D24">
-        <v>1.037132211697025</v>
+        <v>0.9976172614181028</v>
       </c>
       <c r="E24">
-        <v>1.029488930857141</v>
+        <v>0.9928466629836507</v>
       </c>
       <c r="F24">
-        <v>1.04390043038772</v>
+        <v>0.9973015021854922</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031357606722951</v>
+        <v>1.039726001766826</v>
       </c>
       <c r="J24">
-        <v>1.035853609508762</v>
+        <v>1.011257470912146</v>
       </c>
       <c r="K24">
-        <v>1.040498326839456</v>
+        <v>1.011686350224621</v>
       </c>
       <c r="L24">
-        <v>1.032881872110962</v>
+        <v>1.007000574677332</v>
       </c>
       <c r="M24">
-        <v>1.047243151552994</v>
+        <v>1.01137617277371</v>
       </c>
       <c r="N24">
-        <v>1.037324640448334</v>
+        <v>1.012693572513695</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031326035508108</v>
+        <v>0.9917518408046431</v>
       </c>
       <c r="D25">
-        <v>1.038698596539418</v>
+        <v>1.005060876081276</v>
       </c>
       <c r="E25">
-        <v>1.030936426790618</v>
+        <v>0.9997189682474297</v>
       </c>
       <c r="F25">
-        <v>1.04573947234743</v>
+        <v>1.005916933379744</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031556203038422</v>
+        <v>1.041393008974704</v>
       </c>
       <c r="J25">
-        <v>1.036945911263793</v>
+        <v>1.016560012916478</v>
       </c>
       <c r="K25">
-        <v>1.041742044135108</v>
+        <v>1.01758113320737</v>
       </c>
       <c r="L25">
-        <v>1.034004319760657</v>
+        <v>1.012321648438945</v>
       </c>
       <c r="M25">
-        <v>1.048761088866425</v>
+        <v>1.018424085764175</v>
       </c>
       <c r="N25">
-        <v>1.038418493397146</v>
+        <v>1.018003644735882</v>
       </c>
     </row>
   </sheetData>
